--- a/target/test-classes/testData.xlsx
+++ b/target/test-classes/testData.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F1E0B12A-0499-4517-8791-35775AED706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{20EC2F8C-2E5D-48CD-91F7-33CBA601E23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5461AA17-FD0E-4CC1-AC77-336A09AB42A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="test01" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K17"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -421,7 +420,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,16 +476,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC5AF25-B916-47B1-8480-C99A7FDB0464}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>